--- a/EPL_refereestats.xlsx
+++ b/EPL_refereestats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kovan\Advancedmetrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943EACBB-1176-4293-98C9-CB5B5EC350DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF4B6E2-7C45-4A66-A34C-EA8C75D9E695}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -581,24 +581,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -671,7 +671,7 @@
         <v>41.518518518518519</v>
       </c>
       <c r="L2" s="1">
-        <v>25.148148148148149</v>
+        <v>40.851851851851855</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -709,7 +709,7 @@
         <v>34.92</v>
       </c>
       <c r="L3" s="1">
-        <v>27.68</v>
+        <v>30.88</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -747,7 +747,7 @@
         <v>36.24</v>
       </c>
       <c r="L4" s="1">
-        <v>21.56</v>
+        <v>32.880000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -785,7 +785,7 @@
         <v>38.25</v>
       </c>
       <c r="L5" s="1">
-        <v>22.791666666666668</v>
+        <v>38.333333333333336</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -823,7 +823,7 @@
         <v>38.478260869565219</v>
       </c>
       <c r="L6" s="1">
-        <v>24.086956521739129</v>
+        <v>35.608695652173914</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -861,7 +861,7 @@
         <v>44.590909090909093</v>
       </c>
       <c r="L7" s="1">
-        <v>27.636363636363637</v>
+        <v>37.136363636363633</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -899,7 +899,7 @@
         <v>36.409090909090907</v>
       </c>
       <c r="L8" s="1">
-        <v>24.954545454545453</v>
+        <v>31.363636363636363</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -937,7 +937,7 @@
         <v>44.523809523809526</v>
       </c>
       <c r="L9" s="1">
-        <v>28.857142857142858</v>
+        <v>41.666666666666664</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -975,7 +975,7 @@
         <v>42.65</v>
       </c>
       <c r="L10" s="1">
-        <v>31.1</v>
+        <v>34.6</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1013,7 +1013,7 @@
         <v>32.4</v>
       </c>
       <c r="L11" s="1">
-        <v>24.4</v>
+        <v>30.15</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -1051,7 +1051,7 @@
         <v>37.842105263157897</v>
       </c>
       <c r="L12" s="1">
-        <v>27.684210526315791</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -1089,7 +1089,7 @@
         <v>39.588235294117645</v>
       </c>
       <c r="L13" s="1">
-        <v>22.764705882352942</v>
+        <v>36.176470588235297</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1127,7 +1127,7 @@
         <v>40.5625</v>
       </c>
       <c r="L14" s="1">
-        <v>18.1875</v>
+        <v>21.5625</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1165,7 +1165,7 @@
         <v>34.866666666666667</v>
       </c>
       <c r="L15" s="1">
-        <v>18.333333333333332</v>
+        <v>33.133333333333333</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1203,7 +1203,7 @@
         <v>43.285714285714285</v>
       </c>
       <c r="L16" s="1">
-        <v>24.571428571428573</v>
+        <v>37.571428571428569</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1279,7 +1279,7 @@
         <v>32.727272727272727</v>
       </c>
       <c r="L18" s="1">
-        <v>22.272727272727273</v>
+        <v>27.181818181818183</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1317,7 +1317,7 @@
         <v>26.4</v>
       </c>
       <c r="L19" s="1">
-        <v>17.7</v>
+        <v>38.4</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1355,7 +1355,7 @@
         <v>40.5</v>
       </c>
       <c r="L20" s="1">
-        <v>27.6</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1393,7 +1393,7 @@
         <v>42.833333333333336</v>
       </c>
       <c r="L21" s="1">
-        <v>26.833333333333332</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1469,7 +1469,7 @@
         <v>60</v>
       </c>
       <c r="L23" s="1">
-        <v>24.25</v>
+        <v>54.75</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -1507,7 +1507,7 @@
         <v>16.333333333333332</v>
       </c>
       <c r="L24" s="1">
-        <v>16.333333333333332</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">

--- a/EPL_refereestats.xlsx
+++ b/EPL_refereestats.xlsx
@@ -270,44 +270,44 @@
       <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
-        <v>34</v>
+      <c r="B2" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C2" t="n">
-        <v>5.0</v>
+        <v>11.0</v>
       </c>
       <c r="D2" t="n">
-        <v>305.0</v>
+        <v>745.0</v>
       </c>
       <c r="E2" t="n">
-        <v>61.0</v>
+        <v>67.72727272727273</v>
       </c>
       <c r="F2" t="n">
-        <v>4750.0</v>
+        <v>13650.0</v>
       </c>
       <c r="G2" t="n">
-        <v>950.0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>3800.0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>760.0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>53.4</v>
-      </c>
-      <c r="K2" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="L2" t="n">
-        <v>41.4</v>
+        <v>1240.909090909091</v>
+      </c>
+      <c r="H2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L2" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M2" t="n">
-        <v>19.8</v>
+        <v>22.363636363636363</v>
       </c>
       <c r="N2" t="n">
-        <v>3.080808080808081</v>
+        <v>3.0284552845528454</v>
       </c>
     </row>
     <row r="3">
@@ -315,43 +315,43 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D3" t="n">
-        <v>260.0</v>
+        <v>305.0</v>
       </c>
       <c r="E3" t="n">
-        <v>65.0</v>
+        <v>61.0</v>
       </c>
       <c r="F3" t="n">
-        <v>3600.0</v>
+        <v>4750.0</v>
       </c>
       <c r="G3" t="n">
-        <v>900.0</v>
+        <v>950.0</v>
       </c>
       <c r="H3" t="n">
-        <v>2900.0</v>
+        <v>3800.0</v>
       </c>
       <c r="I3" t="n">
-        <v>725.0</v>
+        <v>760.0</v>
       </c>
       <c r="J3" t="n">
-        <v>31.25</v>
+        <v>53.4</v>
       </c>
       <c r="K3" t="n">
-        <v>32.0</v>
+        <v>43.6</v>
       </c>
       <c r="L3" t="n">
-        <v>20.75</v>
+        <v>41.4</v>
       </c>
       <c r="M3" t="n">
-        <v>26.25</v>
+        <v>19.8</v>
       </c>
       <c r="N3" t="n">
-        <v>2.4761904761904763</v>
+        <v>3.080808080808081</v>
       </c>
     </row>
     <row r="4">
@@ -359,43 +359,43 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" t="n">
         <v>4.0</v>
       </c>
       <c r="D4" t="n">
-        <v>245.0</v>
+        <v>260.0</v>
       </c>
       <c r="E4" t="n">
-        <v>61.25</v>
+        <v>65.0</v>
       </c>
       <c r="F4" t="n">
-        <v>4250.0</v>
+        <v>3600.0</v>
       </c>
       <c r="G4" t="n">
-        <v>1062.5</v>
+        <v>900.0</v>
       </c>
       <c r="H4" t="n">
-        <v>3700.0</v>
+        <v>2900.0</v>
       </c>
       <c r="I4" t="n">
-        <v>925.0</v>
+        <v>725.0</v>
       </c>
       <c r="J4" t="n">
-        <v>31.5</v>
+        <v>31.25</v>
       </c>
       <c r="K4" t="n">
-        <v>41.5</v>
+        <v>32.0</v>
       </c>
       <c r="L4" t="n">
-        <v>31.5</v>
+        <v>20.75</v>
       </c>
       <c r="M4" t="n">
-        <v>25.0</v>
+        <v>26.25</v>
       </c>
       <c r="N4" t="n">
-        <v>2.45</v>
+        <v>2.4761904761904763</v>
       </c>
     </row>
     <row r="5">
@@ -403,43 +403,43 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D5" t="n">
-        <v>70.0</v>
+        <v>245.0</v>
       </c>
       <c r="E5" t="n">
-        <v>23.333333333333332</v>
+        <v>61.25</v>
       </c>
       <c r="F5" t="n">
-        <v>500.0</v>
+        <v>4250.0</v>
       </c>
       <c r="G5" t="n">
-        <v>166.66666666666666</v>
+        <v>1062.5</v>
       </c>
       <c r="H5" t="n">
-        <v>600.0</v>
+        <v>3700.0</v>
       </c>
       <c r="I5" t="n">
-        <v>200.0</v>
+        <v>925.0</v>
       </c>
       <c r="J5" t="n">
-        <v>37.333333333333336</v>
+        <v>31.5</v>
       </c>
       <c r="K5" t="n">
-        <v>40.333333333333336</v>
+        <v>41.5</v>
       </c>
       <c r="L5" t="n">
-        <v>29.666666666666668</v>
+        <v>31.5</v>
       </c>
       <c r="M5" t="n">
-        <v>20.333333333333332</v>
+        <v>25.0</v>
       </c>
       <c r="N5" t="n">
-        <v>1.1475409836065573</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="6">
@@ -447,43 +447,43 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" t="n">
         <v>3.0</v>
       </c>
       <c r="D6" t="n">
-        <v>155.0</v>
+        <v>70.0</v>
       </c>
       <c r="E6" t="n">
-        <v>51.666666666666664</v>
+        <v>23.333333333333332</v>
       </c>
       <c r="F6" t="n">
-        <v>2200.0</v>
+        <v>500.0</v>
       </c>
       <c r="G6" t="n">
-        <v>733.3333333333334</v>
+        <v>166.66666666666666</v>
       </c>
       <c r="H6" t="n">
-        <v>1050.0</v>
+        <v>600.0</v>
       </c>
       <c r="I6" t="n">
-        <v>350.0</v>
+        <v>200.0</v>
       </c>
       <c r="J6" t="n">
-        <v>59.0</v>
+        <v>37.333333333333336</v>
       </c>
       <c r="K6" t="n">
-        <v>47.333333333333336</v>
+        <v>40.333333333333336</v>
       </c>
       <c r="L6" t="n">
-        <v>44.0</v>
+        <v>29.666666666666668</v>
       </c>
       <c r="M6" t="n">
-        <v>16.333333333333332</v>
+        <v>20.333333333333332</v>
       </c>
       <c r="N6" t="n">
-        <v>3.163265306122449</v>
+        <v>1.1475409836065573</v>
       </c>
     </row>
     <row r="7">
@@ -491,43 +491,43 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" t="n">
         <v>3.0</v>
       </c>
       <c r="D7" t="n">
-        <v>165.0</v>
+        <v>155.0</v>
       </c>
       <c r="E7" t="n">
-        <v>55.0</v>
+        <v>51.666666666666664</v>
       </c>
       <c r="F7" t="n">
-        <v>2400.0</v>
+        <v>2200.0</v>
       </c>
       <c r="G7" t="n">
-        <v>800.0</v>
+        <v>733.3333333333334</v>
       </c>
       <c r="H7" t="n">
-        <v>2250.0</v>
+        <v>1050.0</v>
       </c>
       <c r="I7" t="n">
-        <v>750.0</v>
+        <v>350.0</v>
       </c>
       <c r="J7" t="n">
-        <v>48.333333333333336</v>
+        <v>59.0</v>
       </c>
       <c r="K7" t="n">
-        <v>39.666666666666664</v>
+        <v>47.333333333333336</v>
       </c>
       <c r="L7" t="n">
-        <v>33.333333333333336</v>
+        <v>44.0</v>
       </c>
       <c r="M7" t="n">
-        <v>25.0</v>
+        <v>16.333333333333332</v>
       </c>
       <c r="N7" t="n">
-        <v>2.2</v>
+        <v>3.163265306122449</v>
       </c>
     </row>
     <row r="8">
@@ -535,43 +535,43 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" t="n">
         <v>3.0</v>
       </c>
       <c r="D8" t="n">
-        <v>180.0</v>
+        <v>165.0</v>
       </c>
       <c r="E8" t="n">
-        <v>60.0</v>
+        <v>55.0</v>
       </c>
       <c r="F8" t="n">
-        <v>2700.0</v>
+        <v>2400.0</v>
       </c>
       <c r="G8" t="n">
-        <v>900.0</v>
+        <v>800.0</v>
       </c>
       <c r="H8" t="n">
-        <v>2000.0</v>
+        <v>2250.0</v>
       </c>
       <c r="I8" t="n">
-        <v>666.6666666666666</v>
+        <v>750.0</v>
       </c>
       <c r="J8" t="n">
-        <v>31.666666666666668</v>
+        <v>48.333333333333336</v>
       </c>
       <c r="K8" t="n">
-        <v>17.333333333333332</v>
+        <v>39.666666666666664</v>
       </c>
       <c r="L8" t="n">
-        <v>15.333333333333334</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="M8" t="n">
-        <v>25.333333333333332</v>
+        <v>25.0</v>
       </c>
       <c r="N8" t="n">
-        <v>2.3684210526315788</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="9">
@@ -579,43 +579,43 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" t="n">
         <v>3.0</v>
       </c>
       <c r="D9" t="n">
-        <v>155.0</v>
+        <v>180.0</v>
       </c>
       <c r="E9" t="n">
-        <v>51.666666666666664</v>
+        <v>60.0</v>
       </c>
       <c r="F9" t="n">
-        <v>2100.0</v>
+        <v>2700.0</v>
       </c>
       <c r="G9" t="n">
-        <v>700.0</v>
+        <v>900.0</v>
       </c>
       <c r="H9" t="n">
-        <v>1300.0</v>
+        <v>2000.0</v>
       </c>
       <c r="I9" t="n">
-        <v>433.3333333333333</v>
+        <v>666.6666666666666</v>
       </c>
       <c r="J9" t="n">
-        <v>67.66666666666667</v>
+        <v>31.666666666666668</v>
       </c>
       <c r="K9" t="n">
-        <v>57.333333333333336</v>
+        <v>17.333333333333332</v>
       </c>
       <c r="L9" t="n">
-        <v>48.0</v>
+        <v>15.333333333333334</v>
       </c>
       <c r="M9" t="n">
-        <v>21.666666666666668</v>
+        <v>25.333333333333332</v>
       </c>
       <c r="N9" t="n">
-        <v>2.3846153846153846</v>
+        <v>2.3684210526315788</v>
       </c>
     </row>
     <row r="10">
@@ -623,43 +623,43 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" t="n">
         <v>3.0</v>
       </c>
       <c r="D10" t="n">
-        <v>180.0</v>
+        <v>155.0</v>
       </c>
       <c r="E10" t="n">
-        <v>60.0</v>
+        <v>51.666666666666664</v>
       </c>
       <c r="F10" t="n">
-        <v>2700.0</v>
+        <v>2100.0</v>
       </c>
       <c r="G10" t="n">
-        <v>900.0</v>
+        <v>700.0</v>
       </c>
       <c r="H10" t="n">
-        <v>2300.0</v>
+        <v>1300.0</v>
       </c>
       <c r="I10" t="n">
-        <v>766.6666666666666</v>
+        <v>433.3333333333333</v>
       </c>
       <c r="J10" t="n">
-        <v>29.0</v>
+        <v>67.66666666666667</v>
       </c>
       <c r="K10" t="n">
-        <v>57.0</v>
+        <v>57.333333333333336</v>
       </c>
       <c r="L10" t="n">
-        <v>22.0</v>
+        <v>48.0</v>
       </c>
       <c r="M10" t="n">
-        <v>29.0</v>
+        <v>21.666666666666668</v>
       </c>
       <c r="N10" t="n">
-        <v>2.0689655172413794</v>
+        <v>2.3846153846153846</v>
       </c>
     </row>
     <row r="11">
@@ -667,43 +667,43 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" t="n">
         <v>3.0</v>
       </c>
       <c r="D11" t="n">
-        <v>110.0</v>
+        <v>180.0</v>
       </c>
       <c r="E11" t="n">
-        <v>36.666666666666664</v>
+        <v>60.0</v>
       </c>
       <c r="F11" t="n">
-        <v>600.0</v>
+        <v>2700.0</v>
       </c>
       <c r="G11" t="n">
-        <v>200.0</v>
+        <v>900.0</v>
       </c>
       <c r="H11" t="n">
-        <v>800.0</v>
+        <v>2300.0</v>
       </c>
       <c r="I11" t="n">
-        <v>266.6666666666667</v>
+        <v>766.6666666666666</v>
       </c>
       <c r="J11" t="n">
-        <v>30.333333333333332</v>
+        <v>29.0</v>
       </c>
       <c r="K11" t="n">
-        <v>20.333333333333332</v>
+        <v>57.0</v>
       </c>
       <c r="L11" t="n">
-        <v>20.333333333333332</v>
+        <v>22.0</v>
       </c>
       <c r="M11" t="n">
-        <v>25.666666666666668</v>
+        <v>29.0</v>
       </c>
       <c r="N11" t="n">
-        <v>1.4285714285714286</v>
+        <v>2.0689655172413794</v>
       </c>
     </row>
     <row r="12">
@@ -711,43 +711,43 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" t="n">
         <v>3.0</v>
       </c>
       <c r="D12" t="n">
-        <v>170.0</v>
+        <v>110.0</v>
       </c>
       <c r="E12" t="n">
-        <v>56.666666666666664</v>
+        <v>36.666666666666664</v>
       </c>
       <c r="F12" t="n">
-        <v>2700.0</v>
+        <v>600.0</v>
       </c>
       <c r="G12" t="n">
-        <v>900.0</v>
+        <v>200.0</v>
       </c>
       <c r="H12" t="n">
-        <v>2500.0</v>
+        <v>800.0</v>
       </c>
       <c r="I12" t="n">
-        <v>833.3333333333334</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="J12" t="n">
-        <v>34.0</v>
+        <v>30.333333333333332</v>
       </c>
       <c r="K12" t="n">
-        <v>44.333333333333336</v>
+        <v>20.333333333333332</v>
       </c>
       <c r="L12" t="n">
-        <v>19.0</v>
+        <v>20.333333333333332</v>
       </c>
       <c r="M12" t="n">
-        <v>26.666666666666668</v>
+        <v>25.666666666666668</v>
       </c>
       <c r="N12" t="n">
-        <v>2.125</v>
+        <v>1.4285714285714286</v>
       </c>
     </row>
     <row r="13">
@@ -755,43 +755,43 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D13" t="n">
-        <v>115.0</v>
+        <v>170.0</v>
       </c>
       <c r="E13" t="n">
-        <v>57.5</v>
+        <v>56.666666666666664</v>
       </c>
       <c r="F13" t="n">
-        <v>1550.0</v>
+        <v>2700.0</v>
       </c>
       <c r="G13" t="n">
-        <v>775.0</v>
+        <v>900.0</v>
       </c>
       <c r="H13" t="n">
-        <v>1550.0</v>
+        <v>2500.0</v>
       </c>
       <c r="I13" t="n">
-        <v>775.0</v>
+        <v>833.3333333333334</v>
       </c>
       <c r="J13" t="n">
-        <v>58.5</v>
+        <v>34.0</v>
       </c>
       <c r="K13" t="n">
-        <v>20.0</v>
+        <v>44.333333333333336</v>
       </c>
       <c r="L13" t="n">
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
       <c r="M13" t="n">
-        <v>24.5</v>
+        <v>26.666666666666668</v>
       </c>
       <c r="N13" t="n">
-        <v>2.3469387755102042</v>
+        <v>2.125</v>
       </c>
     </row>
     <row r="14">
@@ -799,43 +799,43 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14" t="n">
         <v>2.0</v>
       </c>
       <c r="D14" t="n">
-        <v>80.0</v>
+        <v>115.0</v>
       </c>
       <c r="E14" t="n">
-        <v>40.0</v>
+        <v>57.5</v>
       </c>
       <c r="F14" t="n">
-        <v>800.0</v>
+        <v>1550.0</v>
       </c>
       <c r="G14" t="n">
-        <v>400.0</v>
+        <v>775.0</v>
       </c>
       <c r="H14" t="n">
-        <v>600.0</v>
+        <v>1550.0</v>
       </c>
       <c r="I14" t="n">
-        <v>300.0</v>
+        <v>775.0</v>
       </c>
       <c r="J14" t="n">
-        <v>56.0</v>
+        <v>58.5</v>
       </c>
       <c r="K14" t="n">
-        <v>43.0</v>
+        <v>20.0</v>
       </c>
       <c r="L14" t="n">
-        <v>40.5</v>
+        <v>20.0</v>
       </c>
       <c r="M14" t="n">
         <v>24.5</v>
       </c>
       <c r="N14" t="n">
-        <v>1.6326530612244898</v>
+        <v>2.3469387755102042</v>
       </c>
     </row>
     <row r="15">
@@ -843,7 +843,7 @@
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C15" t="n">
         <v>2.0</v>
@@ -855,31 +855,31 @@
         <v>40.0</v>
       </c>
       <c r="F15" t="n">
-        <v>700.0</v>
+        <v>800.0</v>
       </c>
       <c r="G15" t="n">
-        <v>350.0</v>
+        <v>400.0</v>
       </c>
       <c r="H15" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="I15" t="n">
         <v>300.0</v>
       </c>
-      <c r="I15" t="n">
-        <v>150.0</v>
-      </c>
       <c r="J15" t="n">
-        <v>57.0</v>
+        <v>56.0</v>
       </c>
       <c r="K15" t="n">
-        <v>70.5</v>
+        <v>43.0</v>
       </c>
       <c r="L15" t="n">
-        <v>50.5</v>
+        <v>40.5</v>
       </c>
       <c r="M15" t="n">
-        <v>19.5</v>
+        <v>24.5</v>
       </c>
       <c r="N15" t="n">
-        <v>2.051282051282051</v>
+        <v>1.6326530612244898</v>
       </c>
     </row>
     <row r="16">
@@ -887,43 +887,43 @@
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C16" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D16" t="n">
-        <v>50.0</v>
+        <v>80.0</v>
       </c>
       <c r="E16" t="n">
-        <v>50.0</v>
+        <v>40.0</v>
       </c>
       <c r="F16" t="n">
-        <v>600.0</v>
+        <v>700.0</v>
       </c>
       <c r="G16" t="n">
-        <v>600.0</v>
+        <v>350.0</v>
       </c>
       <c r="H16" t="n">
-        <v>400.0</v>
+        <v>300.0</v>
       </c>
       <c r="I16" t="n">
-        <v>400.0</v>
+        <v>150.0</v>
       </c>
       <c r="J16" t="n">
-        <v>59.0</v>
+        <v>57.0</v>
       </c>
       <c r="K16" t="n">
-        <v>36.0</v>
+        <v>70.5</v>
       </c>
       <c r="L16" t="n">
-        <v>36.0</v>
+        <v>50.5</v>
       </c>
       <c r="M16" t="n">
-        <v>19.0</v>
+        <v>19.5</v>
       </c>
       <c r="N16" t="n">
-        <v>2.6315789473684212</v>
+        <v>2.051282051282051</v>
       </c>
     </row>
     <row r="17">
@@ -931,43 +931,43 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17" t="n">
         <v>1.0</v>
       </c>
       <c r="D17" t="n">
-        <v>30.0</v>
+        <v>50.0</v>
       </c>
       <c r="E17" t="n">
-        <v>30.0</v>
+        <v>50.0</v>
       </c>
       <c r="F17" t="n">
-        <v>200.0</v>
+        <v>600.0</v>
       </c>
       <c r="G17" t="n">
-        <v>200.0</v>
+        <v>600.0</v>
       </c>
       <c r="H17" t="n">
-        <v>200.0</v>
+        <v>400.0</v>
       </c>
       <c r="I17" t="n">
-        <v>200.0</v>
+        <v>400.0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.0</v>
+        <v>59.0</v>
       </c>
       <c r="K17" t="n">
-        <v>20.0</v>
+        <v>36.0</v>
       </c>
       <c r="L17" t="n">
-        <v>20.0</v>
+        <v>36.0</v>
       </c>
       <c r="M17" t="n">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
       <c r="N17" t="n">
-        <v>1.7647058823529411</v>
+        <v>2.6315789473684212</v>
       </c>
     </row>
     <row r="18">
@@ -975,43 +975,43 @@
         <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18" t="n">
         <v>1.0</v>
       </c>
       <c r="D18" t="n">
-        <v>40.0</v>
+        <v>30.0</v>
       </c>
       <c r="E18" t="n">
-        <v>40.0</v>
+        <v>30.0</v>
       </c>
       <c r="F18" t="n">
-        <v>300.0</v>
+        <v>200.0</v>
       </c>
       <c r="G18" t="n">
-        <v>300.0</v>
+        <v>200.0</v>
       </c>
       <c r="H18" t="n">
-        <v>300.0</v>
+        <v>200.0</v>
       </c>
       <c r="I18" t="n">
-        <v>300.0</v>
+        <v>200.0</v>
       </c>
       <c r="J18" t="n">
-        <v>39.0</v>
+        <v>29.0</v>
       </c>
       <c r="K18" t="n">
-        <v>58.0</v>
+        <v>20.0</v>
       </c>
       <c r="L18" t="n">
-        <v>39.0</v>
+        <v>20.0</v>
       </c>
       <c r="M18" t="n">
-        <v>20.0</v>
+        <v>17.0</v>
       </c>
       <c r="N18" t="n">
-        <v>2.0</v>
+        <v>1.7647058823529411</v>
       </c>
     </row>
     <row r="19">
@@ -1019,43 +1019,43 @@
         <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C19" t="n">
         <v>1.0</v>
       </c>
       <c r="D19" t="n">
-        <v>50.0</v>
+        <v>40.0</v>
       </c>
       <c r="E19" t="n">
-        <v>50.0</v>
+        <v>40.0</v>
       </c>
       <c r="F19" t="n">
-        <v>600.0</v>
+        <v>300.0</v>
       </c>
       <c r="G19" t="n">
-        <v>600.0</v>
+        <v>300.0</v>
       </c>
       <c r="H19" t="n">
-        <v>400.0</v>
+        <v>300.0</v>
       </c>
       <c r="I19" t="n">
-        <v>400.0</v>
+        <v>300.0</v>
       </c>
       <c r="J19" t="n">
-        <v>37.0</v>
+        <v>39.0</v>
       </c>
       <c r="K19" t="n">
-        <v>51.0</v>
+        <v>58.0</v>
       </c>
       <c r="L19" t="n">
-        <v>37.0</v>
+        <v>39.0</v>
       </c>
       <c r="M19" t="n">
-        <v>30.0</v>
+        <v>20.0</v>
       </c>
       <c r="N19" t="n">
-        <v>1.6666666666666667</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="20">
@@ -1063,43 +1063,43 @@
         <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C20" t="n">
         <v>1.0</v>
       </c>
       <c r="D20" t="n">
-        <v>60.0</v>
+        <v>50.0</v>
       </c>
       <c r="E20" t="n">
-        <v>60.0</v>
+        <v>50.0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0</v>
+        <v>600.0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0</v>
+        <v>600.0</v>
       </c>
       <c r="H20" t="n">
-        <v>800.0</v>
+        <v>400.0</v>
       </c>
       <c r="I20" t="n">
-        <v>800.0</v>
+        <v>400.0</v>
       </c>
       <c r="J20" t="n">
-        <v>21.0</v>
+        <v>37.0</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0</v>
+        <v>51.0</v>
       </c>
       <c r="L20" t="n">
-        <v>21.0</v>
+        <v>37.0</v>
       </c>
       <c r="M20" t="n">
-        <v>24.0</v>
+        <v>30.0</v>
       </c>
       <c r="N20" t="n">
-        <v>2.5</v>
+        <v>1.6666666666666667</v>
       </c>
     </row>
     <row r="21">
@@ -1107,40 +1107,40 @@
         <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C21" t="n">
         <v>1.0</v>
       </c>
       <c r="D21" t="n">
-        <v>80.0</v>
+        <v>60.0</v>
       </c>
       <c r="E21" t="n">
-        <v>80.0</v>
+        <v>60.0</v>
       </c>
       <c r="F21" t="n">
-        <v>1600.0</v>
+        <v>0.0</v>
       </c>
       <c r="G21" t="n">
-        <v>1600.0</v>
+        <v>0.0</v>
       </c>
       <c r="H21" t="n">
-        <v>700.0</v>
+        <v>800.0</v>
       </c>
       <c r="I21" t="n">
-        <v>700.0</v>
+        <v>800.0</v>
       </c>
       <c r="J21" t="n">
-        <v>25.0</v>
+        <v>21.0</v>
       </c>
       <c r="K21" t="n">
-        <v>53.0</v>
+        <v>0.0</v>
       </c>
       <c r="L21" t="n">
-        <v>25.0</v>
+        <v>21.0</v>
       </c>
       <c r="M21" t="n">
-        <v>32.0</v>
+        <v>24.0</v>
       </c>
       <c r="N21" t="n">
         <v>2.5</v>
@@ -1150,44 +1150,44 @@
       <c r="A22" t="s">
         <v>33</v>
       </c>
-      <c r="B22" t="e">
-        <v>#N/A</v>
+      <c r="B22" t="s">
+        <v>53</v>
       </c>
       <c r="C22" t="n">
         <v>1.0</v>
       </c>
       <c r="D22" t="n">
-        <v>140.0</v>
+        <v>80.0</v>
       </c>
       <c r="E22" t="n">
-        <v>140.0</v>
+        <v>80.0</v>
       </c>
       <c r="F22" t="n">
-        <v>4800.0</v>
+        <v>1600.0</v>
       </c>
       <c r="G22" t="n">
-        <v>4800.0</v>
-      </c>
-      <c r="H22" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I22" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J22" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K22" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L22" t="e">
-        <v>#N/A</v>
+        <v>1600.0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>700.0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>700.0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>25.0</v>
       </c>
       <c r="M22" t="n">
-        <v>14.0</v>
+        <v>32.0</v>
       </c>
       <c r="N22" t="n">
-        <v>10.0</v>
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>

--- a/EPL_refereestats.xlsx
+++ b/EPL_refereestats.xlsx
@@ -134,37 +134,40 @@
     <t>R Jones</t>
   </si>
   <si>
+    <t>C Pawson</t>
+  </si>
+  <si>
+    <t>C Kavanagh</t>
+  </si>
+  <si>
+    <t>P Bankes</t>
+  </si>
+  <si>
+    <t>S Hooper</t>
+  </si>
+  <si>
     <t>S Attwell</t>
   </si>
   <si>
-    <t>C Pawson</t>
-  </si>
-  <si>
-    <t>C Kavanagh</t>
-  </si>
-  <si>
     <t>T Harrington</t>
   </si>
   <si>
-    <t>P Bankes</t>
-  </si>
-  <si>
-    <t>S Hooper</t>
+    <t>J Brooks</t>
+  </si>
+  <si>
+    <t>T Robinson</t>
+  </si>
+  <si>
+    <t>A Madley</t>
+  </si>
+  <si>
+    <t>D Bond</t>
   </si>
   <si>
     <t>D England</t>
   </si>
   <si>
-    <t>J Brooks</t>
-  </si>
-  <si>
-    <t>T Robinson</t>
-  </si>
-  <si>
-    <t>A Madley</t>
-  </si>
-  <si>
-    <t>D Bond</t>
+    <t>M Salisbury</t>
   </si>
   <si>
     <t>D Coote</t>
@@ -173,13 +176,10 @@
     <t>J Gillett</t>
   </si>
   <si>
-    <t>M Salisbury</t>
+    <t>L Smith</t>
   </si>
   <si>
     <t>J Smith</t>
-  </si>
-  <si>
-    <t>L Smith</t>
   </si>
   <si>
     <t>T Bramall</t>
@@ -286,40 +286,40 @@
         <v>36</v>
       </c>
       <c r="C2" t="n">
-        <v>13.0</v>
+        <v>17.0</v>
       </c>
       <c r="D2" t="n">
-        <v>435.0</v>
+        <v>560.0</v>
       </c>
       <c r="E2" t="n">
-        <v>33.46153846153846</v>
+        <v>32.94117647058823</v>
       </c>
       <c r="F2" t="n">
-        <v>4950.0</v>
+        <v>6250.0</v>
       </c>
       <c r="G2" t="n">
-        <v>380.7692307692308</v>
+        <v>367.6470588235294</v>
       </c>
       <c r="H2" t="n">
-        <v>5200.0</v>
+        <v>5600.0</v>
       </c>
       <c r="I2" t="n">
-        <v>400.0</v>
+        <v>329.4117647058824</v>
       </c>
       <c r="J2" t="n">
-        <v>36.84615384615385</v>
+        <v>34.588235294117645</v>
       </c>
       <c r="K2" t="n">
-        <v>33.23076923076923</v>
+        <v>28.941176470588236</v>
       </c>
       <c r="L2" t="n">
-        <v>27.23076923076923</v>
+        <v>25.647058823529413</v>
       </c>
       <c r="M2" t="n">
-        <v>21.307692307692307</v>
+        <v>22.41176470588235</v>
       </c>
       <c r="N2" t="n">
-        <v>1.5703971119133573</v>
+        <v>1.4698162729658792</v>
       </c>
     </row>
     <row r="3">
@@ -330,40 +330,40 @@
         <v>37</v>
       </c>
       <c r="C3" t="n">
-        <v>12.0</v>
+        <v>15.0</v>
       </c>
       <c r="D3" t="n">
-        <v>595.0</v>
+        <v>755.0</v>
       </c>
       <c r="E3" t="n">
-        <v>49.583333333333336</v>
+        <v>50.333333333333336</v>
       </c>
       <c r="F3" t="n">
-        <v>7450.0</v>
+        <v>9650.0</v>
       </c>
       <c r="G3" t="n">
-        <v>620.8333333333334</v>
+        <v>643.3333333333334</v>
       </c>
       <c r="H3" t="n">
-        <v>6600.0</v>
+        <v>8100.0</v>
       </c>
       <c r="I3" t="n">
-        <v>550.0</v>
+        <v>540.0</v>
       </c>
       <c r="J3" t="n">
-        <v>49.0</v>
+        <v>50.733333333333334</v>
       </c>
       <c r="K3" t="n">
-        <v>46.083333333333336</v>
+        <v>45.4</v>
       </c>
       <c r="L3" t="n">
-        <v>36.416666666666664</v>
+        <v>36.2</v>
       </c>
       <c r="M3" t="n">
-        <v>21.75</v>
+        <v>21.6</v>
       </c>
       <c r="N3" t="n">
-        <v>2.2796934865900385</v>
+        <v>2.330246913580247</v>
       </c>
     </row>
     <row r="4">
@@ -374,40 +374,40 @@
         <v>38</v>
       </c>
       <c r="C4" t="n">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="D4" t="n">
-        <v>540.0</v>
+        <v>610.0</v>
       </c>
       <c r="E4" t="n">
-        <v>54.0</v>
+        <v>50.833333333333336</v>
       </c>
       <c r="F4" t="n">
-        <v>7200.0</v>
+        <v>7700.0</v>
       </c>
       <c r="G4" t="n">
-        <v>720.0</v>
+        <v>641.6666666666666</v>
       </c>
       <c r="H4" t="n">
-        <v>6500.0</v>
+        <v>7100.0</v>
       </c>
       <c r="I4" t="n">
-        <v>650.0</v>
+        <v>591.6666666666666</v>
       </c>
       <c r="J4" t="n">
-        <v>33.0</v>
+        <v>39.0</v>
       </c>
       <c r="K4" t="n">
-        <v>36.8</v>
+        <v>36.083333333333336</v>
       </c>
       <c r="L4" t="n">
-        <v>30.1</v>
+        <v>30.5</v>
       </c>
       <c r="M4" t="n">
-        <v>22.1</v>
+        <v>21.916666666666668</v>
       </c>
       <c r="N4" t="n">
-        <v>2.4434389140271495</v>
+        <v>2.3193916349809887</v>
       </c>
     </row>
     <row r="5">
@@ -418,40 +418,40 @@
         <v>39</v>
       </c>
       <c r="C5" t="n">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="D5" t="n">
-        <v>555.0</v>
+        <v>635.0</v>
       </c>
       <c r="E5" t="n">
-        <v>55.5</v>
+        <v>52.916666666666664</v>
       </c>
       <c r="F5" t="n">
-        <v>7350.0</v>
+        <v>8050.0</v>
       </c>
       <c r="G5" t="n">
-        <v>735.0</v>
+        <v>670.8333333333334</v>
       </c>
       <c r="H5" t="n">
-        <v>7700.0</v>
+        <v>8400.0</v>
       </c>
       <c r="I5" t="n">
-        <v>770.0</v>
+        <v>700.0</v>
       </c>
       <c r="J5" t="n">
-        <v>48.3</v>
+        <v>48.583333333333336</v>
       </c>
       <c r="K5" t="n">
-        <v>35.5</v>
+        <v>36.833333333333336</v>
       </c>
       <c r="L5" t="n">
-        <v>35.9</v>
+        <v>34.583333333333336</v>
       </c>
       <c r="M5" t="n">
-        <v>25.7</v>
+        <v>26.166666666666668</v>
       </c>
       <c r="N5" t="n">
-        <v>2.159533073929961</v>
+        <v>2.022292993630573</v>
       </c>
     </row>
     <row r="6">
@@ -462,40 +462,40 @@
         <v>40</v>
       </c>
       <c r="C6" t="n">
-        <v>9.0</v>
+        <v>12.0</v>
       </c>
       <c r="D6" t="n">
-        <v>400.0</v>
+        <v>550.0</v>
       </c>
       <c r="E6" t="n">
-        <v>44.44444444444444</v>
+        <v>45.833333333333336</v>
       </c>
       <c r="F6" t="n">
-        <v>4500.0</v>
+        <v>6650.0</v>
       </c>
       <c r="G6" t="n">
-        <v>500.0</v>
+        <v>554.1666666666666</v>
       </c>
       <c r="H6" t="n">
-        <v>2450.0</v>
+        <v>6250.0</v>
       </c>
       <c r="I6" t="n">
-        <v>272.22222222222223</v>
+        <v>520.8333333333334</v>
       </c>
       <c r="J6" t="n">
-        <v>69.0</v>
+        <v>37.083333333333336</v>
       </c>
       <c r="K6" t="n">
-        <v>49.55555555555556</v>
+        <v>39.583333333333336</v>
       </c>
       <c r="L6" t="n">
-        <v>48.44444444444444</v>
+        <v>39.166666666666664</v>
       </c>
       <c r="M6" t="n">
-        <v>19.333333333333332</v>
+        <v>23.25</v>
       </c>
       <c r="N6" t="n">
-        <v>2.2988505747126435</v>
+        <v>1.971326164874552</v>
       </c>
     </row>
     <row r="7">
@@ -506,40 +506,40 @@
         <v>41</v>
       </c>
       <c r="C7" t="n">
-        <v>9.0</v>
+        <v>12.0</v>
       </c>
       <c r="D7" t="n">
-        <v>385.0</v>
+        <v>640.0</v>
       </c>
       <c r="E7" t="n">
-        <v>42.77777777777778</v>
+        <v>53.333333333333336</v>
       </c>
       <c r="F7" t="n">
-        <v>4400.0</v>
+        <v>9150.0</v>
       </c>
       <c r="G7" t="n">
-        <v>488.8888888888889</v>
+        <v>762.5</v>
       </c>
       <c r="H7" t="n">
-        <v>4450.0</v>
+        <v>6800.0</v>
       </c>
       <c r="I7" t="n">
-        <v>494.44444444444446</v>
+        <v>566.6666666666666</v>
       </c>
       <c r="J7" t="n">
-        <v>40.0</v>
+        <v>41.25</v>
       </c>
       <c r="K7" t="n">
-        <v>37.666666666666664</v>
+        <v>44.25</v>
       </c>
       <c r="L7" t="n">
-        <v>43.0</v>
+        <v>31.416666666666668</v>
       </c>
       <c r="M7" t="n">
-        <v>23.22222222222222</v>
+        <v>21.083333333333332</v>
       </c>
       <c r="N7" t="n">
-        <v>1.8421052631578947</v>
+        <v>2.5296442687747036</v>
       </c>
     </row>
     <row r="8">
@@ -550,40 +550,40 @@
         <v>42</v>
       </c>
       <c r="C8" t="n">
-        <v>9.0</v>
+        <v>12.0</v>
       </c>
       <c r="D8" t="n">
-        <v>540.0</v>
+        <v>500.0</v>
       </c>
       <c r="E8" t="n">
-        <v>60.0</v>
+        <v>41.666666666666664</v>
       </c>
       <c r="F8" t="n">
-        <v>8550.0</v>
+        <v>4250.0</v>
       </c>
       <c r="G8" t="n">
-        <v>950.0</v>
+        <v>354.1666666666667</v>
       </c>
       <c r="H8" t="n">
-        <v>5900.0</v>
+        <v>4200.0</v>
       </c>
       <c r="I8" t="n">
-        <v>655.5555555555555</v>
+        <v>350.0</v>
       </c>
       <c r="J8" t="n">
-        <v>39.77777777777778</v>
+        <v>39.333333333333336</v>
       </c>
       <c r="K8" t="n">
-        <v>44.333333333333336</v>
+        <v>41.75</v>
       </c>
       <c r="L8" t="n">
-        <v>31.88888888888889</v>
+        <v>33.5</v>
       </c>
       <c r="M8" t="n">
-        <v>20.555555555555557</v>
+        <v>18.083333333333332</v>
       </c>
       <c r="N8" t="n">
-        <v>2.918918918918919</v>
+        <v>2.304147465437788</v>
       </c>
     </row>
     <row r="9">
@@ -594,40 +594,40 @@
         <v>43</v>
       </c>
       <c r="C9" t="n">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="D9" t="n">
-        <v>370.0</v>
+        <v>560.0</v>
       </c>
       <c r="E9" t="n">
-        <v>41.111111111111114</v>
+        <v>50.90909090909091</v>
       </c>
       <c r="F9" t="n">
-        <v>3500.0</v>
+        <v>7150.0</v>
       </c>
       <c r="G9" t="n">
-        <v>388.8888888888889</v>
+        <v>650.0</v>
       </c>
       <c r="H9" t="n">
-        <v>3700.0</v>
+        <v>5950.0</v>
       </c>
       <c r="I9" t="n">
-        <v>411.1111111111111</v>
+        <v>540.9090909090909</v>
       </c>
       <c r="J9" t="n">
-        <v>35.666666666666664</v>
+        <v>56.09090909090909</v>
       </c>
       <c r="K9" t="n">
-        <v>24.0</v>
+        <v>34.18181818181818</v>
       </c>
       <c r="L9" t="n">
-        <v>25.0</v>
+        <v>27.636363636363637</v>
       </c>
       <c r="M9" t="n">
-        <v>22.333333333333332</v>
+        <v>20.181818181818183</v>
       </c>
       <c r="N9" t="n">
-        <v>1.8407960199004976</v>
+        <v>2.5225225225225225</v>
       </c>
     </row>
     <row r="10">
@@ -638,40 +638,40 @@
         <v>44</v>
       </c>
       <c r="C10" t="n">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="D10" t="n">
-        <v>380.0</v>
+        <v>440.0</v>
       </c>
       <c r="E10" t="n">
-        <v>42.22222222222222</v>
+        <v>40.0</v>
       </c>
       <c r="F10" t="n">
-        <v>2950.0</v>
+        <v>4500.0</v>
       </c>
       <c r="G10" t="n">
-        <v>327.77777777777777</v>
+        <v>409.09090909090907</v>
       </c>
       <c r="H10" t="n">
-        <v>3000.0</v>
+        <v>2550.0</v>
       </c>
       <c r="I10" t="n">
-        <v>333.3333333333333</v>
+        <v>231.8181818181818</v>
       </c>
       <c r="J10" t="n">
-        <v>40.333333333333336</v>
+        <v>64.36363636363636</v>
       </c>
       <c r="K10" t="n">
-        <v>46.77777777777778</v>
+        <v>40.54545454545455</v>
       </c>
       <c r="L10" t="n">
-        <v>36.888888888888886</v>
+        <v>47.54545454545455</v>
       </c>
       <c r="M10" t="n">
-        <v>18.22222222222222</v>
+        <v>18.545454545454547</v>
       </c>
       <c r="N10" t="n">
-        <v>2.317073170731707</v>
+        <v>2.156862745098039</v>
       </c>
     </row>
     <row r="11">
@@ -682,40 +682,40 @@
         <v>45</v>
       </c>
       <c r="C11" t="n">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="D11" t="n">
-        <v>450.0</v>
+        <v>485.0</v>
       </c>
       <c r="E11" t="n">
-        <v>56.25</v>
+        <v>44.09090909090909</v>
       </c>
       <c r="F11" t="n">
-        <v>6250.0</v>
+        <v>4800.0</v>
       </c>
       <c r="G11" t="n">
-        <v>781.25</v>
+        <v>436.3636363636364</v>
       </c>
       <c r="H11" t="n">
-        <v>5150.0</v>
+        <v>4700.0</v>
       </c>
       <c r="I11" t="n">
-        <v>643.75</v>
+        <v>427.27272727272725</v>
       </c>
       <c r="J11" t="n">
-        <v>49.75</v>
+        <v>32.90909090909091</v>
       </c>
       <c r="K11" t="n">
-        <v>27.875</v>
+        <v>26.363636363636363</v>
       </c>
       <c r="L11" t="n">
-        <v>21.25</v>
+        <v>21.545454545454547</v>
       </c>
       <c r="M11" t="n">
-        <v>21.125</v>
+        <v>22.545454545454547</v>
       </c>
       <c r="N11" t="n">
-        <v>2.662721893491124</v>
+        <v>1.9556451612903225</v>
       </c>
     </row>
     <row r="12">
@@ -726,40 +726,40 @@
         <v>46</v>
       </c>
       <c r="C12" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="D12" t="n">
-        <v>370.0</v>
+        <v>520.0</v>
       </c>
       <c r="E12" t="n">
-        <v>52.857142857142854</v>
+        <v>57.77777777777778</v>
       </c>
       <c r="F12" t="n">
-        <v>5525.0</v>
+        <v>8500.0</v>
       </c>
       <c r="G12" t="n">
-        <v>789.2857142857143</v>
+        <v>944.4444444444445</v>
       </c>
       <c r="H12" t="n">
-        <v>2450.0</v>
+        <v>5500.0</v>
       </c>
       <c r="I12" t="n">
-        <v>350.0</v>
+        <v>611.1111111111111</v>
       </c>
       <c r="J12" t="n">
-        <v>48.857142857142854</v>
+        <v>53.0</v>
       </c>
       <c r="K12" t="n">
-        <v>36.285714285714285</v>
+        <v>30.555555555555557</v>
       </c>
       <c r="L12" t="n">
-        <v>35.57142857142857</v>
+        <v>31.0</v>
       </c>
       <c r="M12" t="n">
-        <v>23.714285714285715</v>
+        <v>24.333333333333332</v>
       </c>
       <c r="N12" t="n">
-        <v>2.2289156626506026</v>
+        <v>2.374429223744292</v>
       </c>
     </row>
     <row r="13">
@@ -770,40 +770,40 @@
         <v>47</v>
       </c>
       <c r="C13" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="D13" t="n">
-        <v>400.0</v>
+        <v>455.0</v>
       </c>
       <c r="E13" t="n">
-        <v>57.142857142857146</v>
+        <v>50.55555555555556</v>
       </c>
       <c r="F13" t="n">
-        <v>6500.0</v>
+        <v>5500.0</v>
       </c>
       <c r="G13" t="n">
-        <v>928.5714285714286</v>
+        <v>611.1111111111111</v>
       </c>
       <c r="H13" t="n">
-        <v>4500.0</v>
+        <v>4400.0</v>
       </c>
       <c r="I13" t="n">
-        <v>642.8571428571429</v>
+        <v>488.8888888888889</v>
       </c>
       <c r="J13" t="n">
-        <v>50.857142857142854</v>
+        <v>41.888888888888886</v>
       </c>
       <c r="K13" t="n">
-        <v>29.428571428571427</v>
+        <v>41.666666666666664</v>
       </c>
       <c r="L13" t="n">
-        <v>35.0</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="M13" t="n">
-        <v>25.142857142857142</v>
+        <v>23.444444444444443</v>
       </c>
       <c r="N13" t="n">
-        <v>2.272727272727273</v>
+        <v>2.156398104265403</v>
       </c>
     </row>
     <row r="14">
@@ -814,40 +814,40 @@
         <v>48</v>
       </c>
       <c r="C14" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="D14" t="n">
-        <v>395.0</v>
+        <v>545.0</v>
       </c>
       <c r="E14" t="n">
-        <v>56.42857142857143</v>
+        <v>60.55555555555556</v>
       </c>
       <c r="F14" t="n">
-        <v>5200.0</v>
+        <v>8950.0</v>
       </c>
       <c r="G14" t="n">
-        <v>742.8571428571429</v>
+        <v>994.4444444444445</v>
       </c>
       <c r="H14" t="n">
-        <v>4100.0</v>
+        <v>8450.0</v>
       </c>
       <c r="I14" t="n">
-        <v>585.7142857142857</v>
+        <v>938.8888888888889</v>
       </c>
       <c r="J14" t="n">
-        <v>42.57142857142857</v>
+        <v>53.55555555555556</v>
       </c>
       <c r="K14" t="n">
-        <v>39.42857142857143</v>
+        <v>28.11111111111111</v>
       </c>
       <c r="L14" t="n">
-        <v>28.714285714285715</v>
+        <v>34.77777777777778</v>
       </c>
       <c r="M14" t="n">
-        <v>23.857142857142858</v>
+        <v>24.77777777777778</v>
       </c>
       <c r="N14" t="n">
-        <v>2.3652694610778444</v>
+        <v>2.4439461883408073</v>
       </c>
     </row>
     <row r="15">
@@ -858,40 +858,40 @@
         <v>49</v>
       </c>
       <c r="C15" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="D15" t="n">
-        <v>475.0</v>
+        <v>455.0</v>
       </c>
       <c r="E15" t="n">
-        <v>67.85714285714286</v>
+        <v>50.55555555555556</v>
       </c>
       <c r="F15" t="n">
-        <v>8550.0</v>
+        <v>4900.0</v>
       </c>
       <c r="G15" t="n">
-        <v>1221.4285714285713</v>
+        <v>544.4444444444445</v>
       </c>
       <c r="H15" t="n">
-        <v>8050.0</v>
+        <v>4100.0</v>
       </c>
       <c r="I15" t="n">
-        <v>1150.0</v>
+        <v>455.55555555555554</v>
       </c>
       <c r="J15" t="n">
-        <v>54.714285714285715</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="K15" t="n">
-        <v>25.571428571428573</v>
+        <v>54.55555555555556</v>
       </c>
       <c r="L15" t="n">
-        <v>34.142857142857146</v>
+        <v>44.0</v>
       </c>
       <c r="M15" t="n">
-        <v>25.571428571428573</v>
+        <v>23.77777777777778</v>
       </c>
       <c r="N15" t="n">
-        <v>2.653631284916201</v>
+        <v>2.1261682242990654</v>
       </c>
     </row>
     <row r="16">
@@ -902,40 +902,40 @@
         <v>50</v>
       </c>
       <c r="C16" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="D16" t="n">
-        <v>345.0</v>
+        <v>390.0</v>
       </c>
       <c r="E16" t="n">
-        <v>49.285714285714285</v>
+        <v>48.75</v>
       </c>
       <c r="F16" t="n">
-        <v>3800.0</v>
+        <v>5625.0</v>
       </c>
       <c r="G16" t="n">
-        <v>542.8571428571429</v>
+        <v>703.125</v>
       </c>
       <c r="H16" t="n">
-        <v>2700.0</v>
+        <v>2450.0</v>
       </c>
       <c r="I16" t="n">
-        <v>385.7142857142857</v>
+        <v>306.25</v>
       </c>
       <c r="J16" t="n">
-        <v>52.857142857142854</v>
+        <v>49.5</v>
       </c>
       <c r="K16" t="n">
-        <v>60.142857142857146</v>
+        <v>39.875</v>
       </c>
       <c r="L16" t="n">
-        <v>47.42857142857143</v>
+        <v>37.875</v>
       </c>
       <c r="M16" t="n">
-        <v>24.0</v>
+        <v>23.125</v>
       </c>
       <c r="N16" t="n">
-        <v>2.0535714285714284</v>
+        <v>2.108108108108108</v>
       </c>
     </row>
     <row r="17">
@@ -949,37 +949,37 @@
         <v>6.0</v>
       </c>
       <c r="D17" t="n">
-        <v>300.0</v>
+        <v>225.0</v>
       </c>
       <c r="E17" t="n">
-        <v>50.0</v>
+        <v>37.5</v>
       </c>
       <c r="F17" t="n">
-        <v>3600.0</v>
+        <v>1950.0</v>
       </c>
       <c r="G17" t="n">
-        <v>600.0</v>
+        <v>325.0</v>
       </c>
       <c r="H17" t="n">
-        <v>3800.0</v>
+        <v>900.0</v>
       </c>
       <c r="I17" t="n">
-        <v>633.3333333333334</v>
+        <v>150.0</v>
       </c>
       <c r="J17" t="n">
-        <v>26.833333333333332</v>
+        <v>50.666666666666664</v>
       </c>
       <c r="K17" t="n">
-        <v>48.833333333333336</v>
+        <v>43.5</v>
       </c>
       <c r="L17" t="n">
-        <v>25.0</v>
+        <v>36.333333333333336</v>
       </c>
       <c r="M17" t="n">
-        <v>23.833333333333332</v>
+        <v>23.0</v>
       </c>
       <c r="N17" t="n">
-        <v>2.097902097902098</v>
+        <v>1.6304347826086956</v>
       </c>
     </row>
     <row r="18">
@@ -990,40 +990,40 @@
         <v>52</v>
       </c>
       <c r="C18" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="D18" t="n">
-        <v>260.0</v>
+        <v>300.0</v>
       </c>
       <c r="E18" t="n">
-        <v>65.0</v>
+        <v>50.0</v>
       </c>
       <c r="F18" t="n">
-        <v>4300.0</v>
+        <v>3600.0</v>
       </c>
       <c r="G18" t="n">
-        <v>1075.0</v>
+        <v>600.0</v>
       </c>
       <c r="H18" t="n">
-        <v>3200.0</v>
+        <v>3800.0</v>
       </c>
       <c r="I18" t="n">
-        <v>800.0</v>
+        <v>633.3333333333334</v>
       </c>
       <c r="J18" t="n">
-        <v>30.25</v>
+        <v>26.833333333333332</v>
       </c>
       <c r="K18" t="n">
-        <v>27.0</v>
+        <v>48.833333333333336</v>
       </c>
       <c r="L18" t="n">
-        <v>18.0</v>
+        <v>25.0</v>
       </c>
       <c r="M18" t="n">
-        <v>25.0</v>
+        <v>23.833333333333332</v>
       </c>
       <c r="N18" t="n">
-        <v>2.6</v>
+        <v>2.097902097902098</v>
       </c>
     </row>
     <row r="19">
@@ -1034,40 +1034,40 @@
         <v>53</v>
       </c>
       <c r="C19" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D19" t="n">
-        <v>145.0</v>
+        <v>270.0</v>
       </c>
       <c r="E19" t="n">
-        <v>36.25</v>
+        <v>54.0</v>
       </c>
       <c r="F19" t="n">
-        <v>1150.0</v>
+        <v>4300.0</v>
       </c>
       <c r="G19" t="n">
-        <v>287.5</v>
+        <v>860.0</v>
       </c>
       <c r="H19" t="n">
-        <v>700.0</v>
+        <v>3200.0</v>
       </c>
       <c r="I19" t="n">
-        <v>175.0</v>
+        <v>640.0</v>
       </c>
       <c r="J19" t="n">
-        <v>49.25</v>
+        <v>24.2</v>
       </c>
       <c r="K19" t="n">
-        <v>47.25</v>
+        <v>40.6</v>
       </c>
       <c r="L19" t="n">
-        <v>36.5</v>
+        <v>33.4</v>
       </c>
       <c r="M19" t="n">
-        <v>20.0</v>
+        <v>24.2</v>
       </c>
       <c r="N19" t="n">
-        <v>1.8125</v>
+        <v>2.231404958677686</v>
       </c>
     </row>
     <row r="20">
@@ -1078,40 +1078,40 @@
         <v>54</v>
       </c>
       <c r="C20" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D20" t="n">
-        <v>130.0</v>
+        <v>155.0</v>
       </c>
       <c r="E20" t="n">
-        <v>43.333333333333336</v>
+        <v>38.75</v>
       </c>
       <c r="F20" t="n">
-        <v>1400.0</v>
+        <v>1200.0</v>
       </c>
       <c r="G20" t="n">
-        <v>466.6666666666667</v>
+        <v>300.0</v>
       </c>
       <c r="H20" t="n">
         <v>1000.0</v>
       </c>
       <c r="I20" t="n">
-        <v>333.3333333333333</v>
+        <v>250.0</v>
       </c>
       <c r="J20" t="n">
-        <v>27.333333333333332</v>
+        <v>32.75</v>
       </c>
       <c r="K20" t="n">
-        <v>40.333333333333336</v>
+        <v>42.75</v>
       </c>
       <c r="L20" t="n">
-        <v>24.333333333333332</v>
+        <v>33.25</v>
       </c>
       <c r="M20" t="n">
-        <v>19.666666666666668</v>
+        <v>24.0</v>
       </c>
       <c r="N20" t="n">
-        <v>2.2033898305084745</v>
+        <v>1.6145833333333333</v>
       </c>
     </row>
     <row r="21">
@@ -1125,37 +1125,37 @@
         <v>3.0</v>
       </c>
       <c r="D21" t="n">
-        <v>125.0</v>
+        <v>130.0</v>
       </c>
       <c r="E21" t="n">
-        <v>41.666666666666664</v>
+        <v>43.333333333333336</v>
       </c>
       <c r="F21" t="n">
+        <v>1400.0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>466.6666666666667</v>
+      </c>
+      <c r="H21" t="n">
         <v>1000.0</v>
       </c>
-      <c r="G21" t="n">
+      <c r="I21" t="n">
         <v>333.3333333333333</v>
       </c>
-      <c r="H21" t="n">
-        <v>800.0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>266.6666666666667</v>
-      </c>
       <c r="J21" t="n">
-        <v>34.0</v>
+        <v>27.333333333333332</v>
       </c>
       <c r="K21" t="n">
-        <v>39.333333333333336</v>
+        <v>40.333333333333336</v>
       </c>
       <c r="L21" t="n">
-        <v>34.666666666666664</v>
+        <v>24.333333333333332</v>
       </c>
       <c r="M21" t="n">
-        <v>24.333333333333332</v>
+        <v>19.666666666666668</v>
       </c>
       <c r="N21" t="n">
-        <v>1.7123287671232876</v>
+        <v>2.2033898305084745</v>
       </c>
     </row>
     <row r="22">
@@ -1166,40 +1166,40 @@
         <v>56</v>
       </c>
       <c r="C22" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D22" t="n">
-        <v>110.0</v>
+        <v>150.0</v>
       </c>
       <c r="E22" t="n">
-        <v>55.0</v>
+        <v>50.0</v>
       </c>
       <c r="F22" t="n">
-        <v>1300.0</v>
+        <v>1700.0</v>
       </c>
       <c r="G22" t="n">
-        <v>650.0</v>
+        <v>566.6666666666666</v>
       </c>
       <c r="H22" t="n">
-        <v>1300.0</v>
+        <v>1700.0</v>
       </c>
       <c r="I22" t="n">
-        <v>650.0</v>
+        <v>566.6666666666666</v>
       </c>
       <c r="J22" t="n">
-        <v>58.0</v>
+        <v>40.0</v>
       </c>
       <c r="K22" t="n">
-        <v>21.0</v>
+        <v>16.333333333333332</v>
       </c>
       <c r="L22" t="n">
-        <v>21.0</v>
+        <v>15.333333333333334</v>
       </c>
       <c r="M22" t="n">
-        <v>24.5</v>
+        <v>24.666666666666668</v>
       </c>
       <c r="N22" t="n">
-        <v>2.2448979591836733</v>
+        <v>2.027027027027027</v>
       </c>
     </row>
     <row r="23">

--- a/EPL_refereestats.xlsx
+++ b/EPL_refereestats.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>Referee</t>
   </si>
@@ -122,6 +122,9 @@
     <t>23</t>
   </si>
   <si>
+    <t>24</t>
+  </si>
+  <si>
     <t>A Taylor</t>
   </si>
   <si>
@@ -131,6 +134,12 @@
     <t>S Barrott</t>
   </si>
   <si>
+    <t>P Bankes</t>
+  </si>
+  <si>
+    <t>S Hooper</t>
+  </si>
+  <si>
     <t>R Jones</t>
   </si>
   <si>
@@ -140,10 +149,7 @@
     <t>C Kavanagh</t>
   </si>
   <si>
-    <t>P Bankes</t>
-  </si>
-  <si>
-    <t>S Hooper</t>
+    <t>A Madley</t>
   </si>
   <si>
     <t>S Attwell</t>
@@ -152,19 +158,19 @@
     <t>T Harrington</t>
   </si>
   <si>
+    <t>D England</t>
+  </si>
+  <si>
     <t>J Brooks</t>
   </si>
   <si>
     <t>T Robinson</t>
   </si>
   <si>
-    <t>A Madley</t>
-  </si>
-  <si>
     <t>D Bond</t>
   </si>
   <si>
-    <t>D England</t>
+    <t>J Gillett</t>
   </si>
   <si>
     <t>M Salisbury</t>
@@ -173,7 +179,7 @@
     <t>D Coote</t>
   </si>
   <si>
-    <t>J Gillett</t>
+    <t>T Bramall</t>
   </si>
   <si>
     <t>L Smith</t>
@@ -182,7 +188,7 @@
     <t>J Smith</t>
   </si>
   <si>
-    <t>T Bramall</t>
+    <t>K Kavanagh</t>
   </si>
   <si>
     <t>S Allison</t>
@@ -283,43 +289,43 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C2" t="n">
-        <v>17.0</v>
+        <v>22.0</v>
       </c>
       <c r="D2" t="n">
-        <v>560.0</v>
+        <v>620.0</v>
       </c>
       <c r="E2" t="n">
-        <v>32.94117647058823</v>
+        <v>28.181818181818183</v>
       </c>
       <c r="F2" t="n">
         <v>6250.0</v>
       </c>
       <c r="G2" t="n">
-        <v>367.6470588235294</v>
+        <v>284.09090909090907</v>
       </c>
       <c r="H2" t="n">
-        <v>5600.0</v>
+        <v>5900.0</v>
       </c>
       <c r="I2" t="n">
-        <v>329.4117647058824</v>
+        <v>268.1818181818182</v>
       </c>
       <c r="J2" t="n">
-        <v>34.588235294117645</v>
+        <v>26.727272727272727</v>
       </c>
       <c r="K2" t="n">
-        <v>28.941176470588236</v>
+        <v>30.227272727272727</v>
       </c>
       <c r="L2" t="n">
-        <v>25.647058823529413</v>
+        <v>27.681818181818183</v>
       </c>
       <c r="M2" t="n">
-        <v>22.41176470588235</v>
+        <v>20.954545454545453</v>
       </c>
       <c r="N2" t="n">
-        <v>1.4698162729658792</v>
+        <v>1.3449023861171367</v>
       </c>
     </row>
     <row r="3">
@@ -327,43 +333,43 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C3" t="n">
-        <v>15.0</v>
+        <v>20.0</v>
       </c>
       <c r="D3" t="n">
-        <v>755.0</v>
+        <v>1005.0</v>
       </c>
       <c r="E3" t="n">
-        <v>50.333333333333336</v>
+        <v>50.25</v>
       </c>
       <c r="F3" t="n">
-        <v>9650.0</v>
+        <v>13050.0</v>
       </c>
       <c r="G3" t="n">
-        <v>643.3333333333334</v>
+        <v>652.5</v>
       </c>
       <c r="H3" t="n">
-        <v>8100.0</v>
+        <v>8800.0</v>
       </c>
       <c r="I3" t="n">
-        <v>540.0</v>
+        <v>440.0</v>
       </c>
       <c r="J3" t="n">
-        <v>50.733333333333334</v>
+        <v>47.85</v>
       </c>
       <c r="K3" t="n">
         <v>45.4</v>
       </c>
       <c r="L3" t="n">
-        <v>36.2</v>
+        <v>37.9</v>
       </c>
       <c r="M3" t="n">
-        <v>21.6</v>
+        <v>23.25</v>
       </c>
       <c r="N3" t="n">
-        <v>2.330246913580247</v>
+        <v>2.161290322580645</v>
       </c>
     </row>
     <row r="4">
@@ -371,43 +377,43 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C4" t="n">
-        <v>12.0</v>
+        <v>17.0</v>
       </c>
       <c r="D4" t="n">
-        <v>610.0</v>
+        <v>730.0</v>
       </c>
       <c r="E4" t="n">
-        <v>50.833333333333336</v>
+        <v>42.94117647058823</v>
       </c>
       <c r="F4" t="n">
+        <v>8400.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>494.11764705882354</v>
+      </c>
+      <c r="H4" t="n">
         <v>7700.0</v>
       </c>
-      <c r="G4" t="n">
-        <v>641.6666666666666</v>
-      </c>
-      <c r="H4" t="n">
-        <v>7100.0</v>
-      </c>
       <c r="I4" t="n">
-        <v>591.6666666666666</v>
+        <v>452.94117647058823</v>
       </c>
       <c r="J4" t="n">
-        <v>39.0</v>
+        <v>36.588235294117645</v>
       </c>
       <c r="K4" t="n">
-        <v>36.083333333333336</v>
+        <v>40.470588235294116</v>
       </c>
       <c r="L4" t="n">
-        <v>30.5</v>
+        <v>32.64705882352941</v>
       </c>
       <c r="M4" t="n">
-        <v>21.916666666666668</v>
+        <v>21.41176470588235</v>
       </c>
       <c r="N4" t="n">
-        <v>2.3193916349809887</v>
+        <v>2.0054945054945055</v>
       </c>
     </row>
     <row r="5">
@@ -415,43 +421,43 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C5" t="n">
-        <v>12.0</v>
+        <v>17.0</v>
       </c>
       <c r="D5" t="n">
-        <v>635.0</v>
+        <v>700.0</v>
       </c>
       <c r="E5" t="n">
-        <v>52.916666666666664</v>
+        <v>41.1764705882353</v>
       </c>
       <c r="F5" t="n">
-        <v>8050.0</v>
+        <v>6250.0</v>
       </c>
       <c r="G5" t="n">
-        <v>670.8333333333334</v>
+        <v>367.6470588235294</v>
       </c>
       <c r="H5" t="n">
-        <v>8400.0</v>
+        <v>6300.0</v>
       </c>
       <c r="I5" t="n">
-        <v>700.0</v>
+        <v>370.5882352941176</v>
       </c>
       <c r="J5" t="n">
-        <v>48.583333333333336</v>
+        <v>42.05882352941177</v>
       </c>
       <c r="K5" t="n">
-        <v>36.833333333333336</v>
+        <v>38.8235294117647</v>
       </c>
       <c r="L5" t="n">
-        <v>34.583333333333336</v>
+        <v>33.35294117647059</v>
       </c>
       <c r="M5" t="n">
-        <v>26.166666666666668</v>
+        <v>19.352941176470587</v>
       </c>
       <c r="N5" t="n">
-        <v>2.022292993630573</v>
+        <v>2.127659574468085</v>
       </c>
     </row>
     <row r="6">
@@ -459,43 +465,43 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C6" t="n">
-        <v>12.0</v>
+        <v>16.0</v>
       </c>
       <c r="D6" t="n">
-        <v>550.0</v>
+        <v>770.0</v>
       </c>
       <c r="E6" t="n">
-        <v>45.833333333333336</v>
+        <v>48.125</v>
       </c>
       <c r="F6" t="n">
-        <v>6650.0</v>
+        <v>9150.0</v>
       </c>
       <c r="G6" t="n">
-        <v>554.1666666666666</v>
+        <v>571.875</v>
       </c>
       <c r="H6" t="n">
-        <v>6250.0</v>
+        <v>7750.0</v>
       </c>
       <c r="I6" t="n">
-        <v>520.8333333333334</v>
+        <v>484.375</v>
       </c>
       <c r="J6" t="n">
-        <v>37.083333333333336</v>
+        <v>51.875</v>
       </c>
       <c r="K6" t="n">
-        <v>39.583333333333336</v>
+        <v>35.5625</v>
       </c>
       <c r="L6" t="n">
-        <v>39.166666666666664</v>
+        <v>30.3125</v>
       </c>
       <c r="M6" t="n">
-        <v>23.25</v>
+        <v>20.4375</v>
       </c>
       <c r="N6" t="n">
-        <v>1.971326164874552</v>
+        <v>2.3547400611620795</v>
       </c>
     </row>
     <row r="7">
@@ -503,43 +509,43 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C7" t="n">
-        <v>12.0</v>
+        <v>16.0</v>
       </c>
       <c r="D7" t="n">
-        <v>640.0</v>
+        <v>840.0</v>
       </c>
       <c r="E7" t="n">
-        <v>53.333333333333336</v>
+        <v>52.5</v>
       </c>
       <c r="F7" t="n">
-        <v>9150.0</v>
+        <v>9450.0</v>
       </c>
       <c r="G7" t="n">
-        <v>762.5</v>
+        <v>590.625</v>
       </c>
       <c r="H7" t="n">
-        <v>6800.0</v>
+        <v>9700.0</v>
       </c>
       <c r="I7" t="n">
-        <v>566.6666666666666</v>
+        <v>606.25</v>
       </c>
       <c r="J7" t="n">
-        <v>41.25</v>
+        <v>44.125</v>
       </c>
       <c r="K7" t="n">
-        <v>44.25</v>
+        <v>38.875</v>
       </c>
       <c r="L7" t="n">
-        <v>31.416666666666668</v>
+        <v>34.875</v>
       </c>
       <c r="M7" t="n">
-        <v>21.083333333333332</v>
+        <v>25.125</v>
       </c>
       <c r="N7" t="n">
-        <v>2.5296442687747036</v>
+        <v>2.08955223880597</v>
       </c>
     </row>
     <row r="8">
@@ -547,43 +553,43 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C8" t="n">
-        <v>12.0</v>
+        <v>16.0</v>
       </c>
       <c r="D8" t="n">
-        <v>500.0</v>
+        <v>735.0</v>
       </c>
       <c r="E8" t="n">
-        <v>41.666666666666664</v>
+        <v>45.9375</v>
       </c>
       <c r="F8" t="n">
-        <v>4250.0</v>
+        <v>9200.0</v>
       </c>
       <c r="G8" t="n">
-        <v>354.1666666666667</v>
+        <v>575.0</v>
       </c>
       <c r="H8" t="n">
-        <v>4200.0</v>
+        <v>7150.0</v>
       </c>
       <c r="I8" t="n">
-        <v>350.0</v>
+        <v>446.875</v>
       </c>
       <c r="J8" t="n">
-        <v>39.333333333333336</v>
+        <v>38.875</v>
       </c>
       <c r="K8" t="n">
-        <v>41.75</v>
+        <v>39.9375</v>
       </c>
       <c r="L8" t="n">
-        <v>33.5</v>
+        <v>38.3125</v>
       </c>
       <c r="M8" t="n">
-        <v>18.083333333333332</v>
+        <v>23.25</v>
       </c>
       <c r="N8" t="n">
-        <v>2.304147465437788</v>
+        <v>1.9758064516129032</v>
       </c>
     </row>
     <row r="9">
@@ -591,43 +597,43 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C9" t="n">
-        <v>11.0</v>
+        <v>16.0</v>
       </c>
       <c r="D9" t="n">
-        <v>560.0</v>
+        <v>810.0</v>
       </c>
       <c r="E9" t="n">
-        <v>50.90909090909091</v>
+        <v>50.625</v>
       </c>
       <c r="F9" t="n">
-        <v>7150.0</v>
+        <v>11550.0</v>
       </c>
       <c r="G9" t="n">
-        <v>650.0</v>
+        <v>721.875</v>
       </c>
       <c r="H9" t="n">
-        <v>5950.0</v>
+        <v>9000.0</v>
       </c>
       <c r="I9" t="n">
-        <v>540.9090909090909</v>
+        <v>562.5</v>
       </c>
       <c r="J9" t="n">
-        <v>56.09090909090909</v>
+        <v>39.9375</v>
       </c>
       <c r="K9" t="n">
-        <v>34.18181818181818</v>
+        <v>44.875</v>
       </c>
       <c r="L9" t="n">
-        <v>27.636363636363637</v>
+        <v>33.5</v>
       </c>
       <c r="M9" t="n">
-        <v>20.181818181818183</v>
+        <v>21.625</v>
       </c>
       <c r="N9" t="n">
-        <v>2.5225225225225225</v>
+        <v>2.341040462427746</v>
       </c>
     </row>
     <row r="10">
@@ -635,43 +641,43 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C10" t="n">
-        <v>11.0</v>
+        <v>15.0</v>
       </c>
       <c r="D10" t="n">
-        <v>440.0</v>
+        <v>725.0</v>
       </c>
       <c r="E10" t="n">
-        <v>40.0</v>
+        <v>48.333333333333336</v>
       </c>
       <c r="F10" t="n">
-        <v>4500.0</v>
+        <v>10650.0</v>
       </c>
       <c r="G10" t="n">
-        <v>409.09090909090907</v>
+        <v>710.0</v>
       </c>
       <c r="H10" t="n">
-        <v>2550.0</v>
+        <v>9850.0</v>
       </c>
       <c r="I10" t="n">
-        <v>231.8181818181818</v>
+        <v>656.6666666666666</v>
       </c>
       <c r="J10" t="n">
-        <v>64.36363636363636</v>
+        <v>42.4</v>
       </c>
       <c r="K10" t="n">
-        <v>40.54545454545455</v>
+        <v>28.0</v>
       </c>
       <c r="L10" t="n">
-        <v>47.54545454545455</v>
+        <v>29.2</v>
       </c>
       <c r="M10" t="n">
-        <v>18.545454545454547</v>
+        <v>23.666666666666668</v>
       </c>
       <c r="N10" t="n">
-        <v>2.156862745098039</v>
+        <v>2.0422535211267605</v>
       </c>
     </row>
     <row r="11">
@@ -679,43 +685,43 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C11" t="n">
-        <v>11.0</v>
+        <v>14.0</v>
       </c>
       <c r="D11" t="n">
-        <v>485.0</v>
+        <v>550.0</v>
       </c>
       <c r="E11" t="n">
-        <v>44.09090909090909</v>
+        <v>39.285714285714285</v>
       </c>
       <c r="F11" t="n">
-        <v>4800.0</v>
+        <v>5400.0</v>
       </c>
       <c r="G11" t="n">
-        <v>436.3636363636364</v>
+        <v>385.7142857142857</v>
       </c>
       <c r="H11" t="n">
-        <v>4700.0</v>
+        <v>3750.0</v>
       </c>
       <c r="I11" t="n">
-        <v>427.27272727272725</v>
+        <v>267.85714285714283</v>
       </c>
       <c r="J11" t="n">
-        <v>32.90909090909091</v>
+        <v>58.214285714285715</v>
       </c>
       <c r="K11" t="n">
-        <v>26.363636363636363</v>
+        <v>40.857142857142854</v>
       </c>
       <c r="L11" t="n">
-        <v>21.545454545454547</v>
+        <v>45.0</v>
       </c>
       <c r="M11" t="n">
-        <v>22.545454545454547</v>
+        <v>19.142857142857142</v>
       </c>
       <c r="N11" t="n">
-        <v>1.9556451612903225</v>
+        <v>2.0522388059701493</v>
       </c>
     </row>
     <row r="12">
@@ -723,43 +729,43 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C12" t="n">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
       <c r="D12" t="n">
-        <v>520.0</v>
+        <v>605.0</v>
       </c>
       <c r="E12" t="n">
-        <v>57.77777777777778</v>
+        <v>43.214285714285715</v>
       </c>
       <c r="F12" t="n">
-        <v>8500.0</v>
+        <v>5600.0</v>
       </c>
       <c r="G12" t="n">
-        <v>944.4444444444445</v>
+        <v>400.0</v>
       </c>
       <c r="H12" t="n">
-        <v>5500.0</v>
+        <v>5300.0</v>
       </c>
       <c r="I12" t="n">
-        <v>611.1111111111111</v>
+        <v>378.57142857142856</v>
       </c>
       <c r="J12" t="n">
-        <v>53.0</v>
+        <v>33.07142857142857</v>
       </c>
       <c r="K12" t="n">
-        <v>30.555555555555557</v>
+        <v>28.571428571428573</v>
       </c>
       <c r="L12" t="n">
-        <v>31.0</v>
+        <v>24.142857142857142</v>
       </c>
       <c r="M12" t="n">
-        <v>24.333333333333332</v>
+        <v>22.428571428571427</v>
       </c>
       <c r="N12" t="n">
-        <v>2.374429223744292</v>
+        <v>1.9267515923566878</v>
       </c>
     </row>
     <row r="13">
@@ -767,43 +773,43 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C13" t="n">
-        <v>9.0</v>
+        <v>13.0</v>
       </c>
       <c r="D13" t="n">
-        <v>455.0</v>
+        <v>615.0</v>
       </c>
       <c r="E13" t="n">
-        <v>50.55555555555556</v>
+        <v>47.30769230769231</v>
       </c>
       <c r="F13" t="n">
+        <v>9125.0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>701.9230769230769</v>
+      </c>
+      <c r="H13" t="n">
         <v>5500.0</v>
       </c>
-      <c r="G13" t="n">
-        <v>611.1111111111111</v>
-      </c>
-      <c r="H13" t="n">
-        <v>4400.0</v>
-      </c>
       <c r="I13" t="n">
-        <v>488.8888888888889</v>
+        <v>423.0769230769231</v>
       </c>
       <c r="J13" t="n">
-        <v>41.888888888888886</v>
+        <v>43.30769230769231</v>
       </c>
       <c r="K13" t="n">
-        <v>41.666666666666664</v>
+        <v>38.53846153846154</v>
       </c>
       <c r="L13" t="n">
-        <v>33.333333333333336</v>
+        <v>36.92307692307692</v>
       </c>
       <c r="M13" t="n">
-        <v>23.444444444444443</v>
+        <v>23.692307692307693</v>
       </c>
       <c r="N13" t="n">
-        <v>2.156398104265403</v>
+        <v>1.9967532467532467</v>
       </c>
     </row>
     <row r="14">
@@ -811,43 +817,43 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C14" t="n">
-        <v>9.0</v>
+        <v>12.0</v>
       </c>
       <c r="D14" t="n">
-        <v>545.0</v>
+        <v>650.0</v>
       </c>
       <c r="E14" t="n">
-        <v>60.55555555555556</v>
+        <v>54.166666666666664</v>
       </c>
       <c r="F14" t="n">
-        <v>8950.0</v>
+        <v>9700.0</v>
       </c>
       <c r="G14" t="n">
-        <v>994.4444444444445</v>
+        <v>808.3333333333334</v>
       </c>
       <c r="H14" t="n">
-        <v>8450.0</v>
+        <v>6500.0</v>
       </c>
       <c r="I14" t="n">
-        <v>938.8888888888889</v>
+        <v>541.6666666666666</v>
       </c>
       <c r="J14" t="n">
-        <v>53.55555555555556</v>
+        <v>48.5</v>
       </c>
       <c r="K14" t="n">
-        <v>28.11111111111111</v>
+        <v>34.75</v>
       </c>
       <c r="L14" t="n">
-        <v>34.77777777777778</v>
+        <v>31.416666666666668</v>
       </c>
       <c r="M14" t="n">
-        <v>24.77777777777778</v>
+        <v>22.916666666666668</v>
       </c>
       <c r="N14" t="n">
-        <v>2.4439461883408073</v>
+        <v>2.3636363636363638</v>
       </c>
     </row>
     <row r="15">
@@ -855,43 +861,43 @@
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C15" t="n">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="D15" t="n">
-        <v>455.0</v>
+        <v>555.0</v>
       </c>
       <c r="E15" t="n">
-        <v>50.55555555555556</v>
+        <v>50.45454545454545</v>
       </c>
       <c r="F15" t="n">
-        <v>4900.0</v>
+        <v>6900.0</v>
       </c>
       <c r="G15" t="n">
-        <v>544.4444444444445</v>
+        <v>627.2727272727273</v>
       </c>
       <c r="H15" t="n">
-        <v>4100.0</v>
+        <v>6000.0</v>
       </c>
       <c r="I15" t="n">
-        <v>455.55555555555554</v>
+        <v>545.4545454545455</v>
       </c>
       <c r="J15" t="n">
-        <v>55.55555555555556</v>
+        <v>40.90909090909091</v>
       </c>
       <c r="K15" t="n">
-        <v>54.55555555555556</v>
+        <v>38.0</v>
       </c>
       <c r="L15" t="n">
-        <v>44.0</v>
+        <v>31.181818181818183</v>
       </c>
       <c r="M15" t="n">
-        <v>23.77777777777778</v>
+        <v>23.545454545454547</v>
       </c>
       <c r="N15" t="n">
-        <v>2.1261682242990654</v>
+        <v>2.142857142857143</v>
       </c>
     </row>
     <row r="16">
@@ -899,43 +905,43 @@
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C16" t="n">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="D16" t="n">
-        <v>390.0</v>
+        <v>475.0</v>
       </c>
       <c r="E16" t="n">
-        <v>48.75</v>
+        <v>43.18181818181818</v>
       </c>
       <c r="F16" t="n">
-        <v>5625.0</v>
+        <v>4900.0</v>
       </c>
       <c r="G16" t="n">
-        <v>703.125</v>
+        <v>445.45454545454544</v>
       </c>
       <c r="H16" t="n">
-        <v>2450.0</v>
+        <v>4200.0</v>
       </c>
       <c r="I16" t="n">
-        <v>306.25</v>
+        <v>381.8181818181818</v>
       </c>
       <c r="J16" t="n">
-        <v>49.5</v>
+        <v>45.63636363636363</v>
       </c>
       <c r="K16" t="n">
-        <v>39.875</v>
+        <v>44.63636363636363</v>
       </c>
       <c r="L16" t="n">
-        <v>37.875</v>
+        <v>36.18181818181818</v>
       </c>
       <c r="M16" t="n">
-        <v>23.125</v>
+        <v>23.363636363636363</v>
       </c>
       <c r="N16" t="n">
-        <v>2.108108108108108</v>
+        <v>1.8482490272373542</v>
       </c>
     </row>
     <row r="17">
@@ -943,43 +949,43 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C17" t="n">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="D17" t="n">
-        <v>225.0</v>
+        <v>400.0</v>
       </c>
       <c r="E17" t="n">
-        <v>37.5</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="F17" t="n">
-        <v>1950.0</v>
+        <v>5000.0</v>
       </c>
       <c r="G17" t="n">
-        <v>325.0</v>
+        <v>555.5555555555555</v>
       </c>
       <c r="H17" t="n">
-        <v>900.0</v>
+        <v>4100.0</v>
       </c>
       <c r="I17" t="n">
-        <v>150.0</v>
+        <v>455.55555555555554</v>
       </c>
       <c r="J17" t="n">
-        <v>50.666666666666664</v>
+        <v>24.11111111111111</v>
       </c>
       <c r="K17" t="n">
-        <v>43.5</v>
+        <v>33.22222222222222</v>
       </c>
       <c r="L17" t="n">
-        <v>36.333333333333336</v>
+        <v>32.666666666666664</v>
       </c>
       <c r="M17" t="n">
-        <v>23.0</v>
+        <v>23.88888888888889</v>
       </c>
       <c r="N17" t="n">
-        <v>1.6304347826086956</v>
+        <v>1.8604651162790697</v>
       </c>
     </row>
     <row r="18">
@@ -987,43 +993,43 @@
         <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C18" t="n">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="D18" t="n">
-        <v>300.0</v>
+        <v>370.0</v>
       </c>
       <c r="E18" t="n">
-        <v>50.0</v>
+        <v>41.111111111111114</v>
       </c>
       <c r="F18" t="n">
-        <v>3600.0</v>
+        <v>3900.0</v>
       </c>
       <c r="G18" t="n">
-        <v>600.0</v>
+        <v>433.3333333333333</v>
       </c>
       <c r="H18" t="n">
-        <v>3800.0</v>
+        <v>2850.0</v>
       </c>
       <c r="I18" t="n">
-        <v>633.3333333333334</v>
+        <v>316.6666666666667</v>
       </c>
       <c r="J18" t="n">
-        <v>26.833333333333332</v>
+        <v>41.111111111111114</v>
       </c>
       <c r="K18" t="n">
-        <v>48.833333333333336</v>
+        <v>43.77777777777778</v>
       </c>
       <c r="L18" t="n">
-        <v>25.0</v>
+        <v>37.888888888888886</v>
       </c>
       <c r="M18" t="n">
-        <v>23.833333333333332</v>
+        <v>22.333333333333332</v>
       </c>
       <c r="N18" t="n">
-        <v>2.097902097902098</v>
+        <v>1.8407960199004976</v>
       </c>
     </row>
     <row r="19">
@@ -1031,43 +1037,43 @@
         <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C19" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="D19" t="n">
-        <v>270.0</v>
+        <v>300.0</v>
       </c>
       <c r="E19" t="n">
-        <v>54.0</v>
+        <v>50.0</v>
       </c>
       <c r="F19" t="n">
-        <v>4300.0</v>
+        <v>3600.0</v>
       </c>
       <c r="G19" t="n">
-        <v>860.0</v>
+        <v>600.0</v>
       </c>
       <c r="H19" t="n">
-        <v>3200.0</v>
+        <v>3800.0</v>
       </c>
       <c r="I19" t="n">
-        <v>640.0</v>
+        <v>633.3333333333334</v>
       </c>
       <c r="J19" t="n">
-        <v>24.2</v>
+        <v>26.833333333333332</v>
       </c>
       <c r="K19" t="n">
-        <v>40.6</v>
+        <v>48.833333333333336</v>
       </c>
       <c r="L19" t="n">
-        <v>33.4</v>
+        <v>25.0</v>
       </c>
       <c r="M19" t="n">
-        <v>24.2</v>
+        <v>23.833333333333332</v>
       </c>
       <c r="N19" t="n">
-        <v>2.231404958677686</v>
+        <v>2.097902097902098</v>
       </c>
     </row>
     <row r="20">
@@ -1075,43 +1081,43 @@
         <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C20" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="D20" t="n">
-        <v>155.0</v>
+        <v>215.0</v>
       </c>
       <c r="E20" t="n">
-        <v>38.75</v>
+        <v>35.833333333333336</v>
       </c>
       <c r="F20" t="n">
-        <v>1200.0</v>
+        <v>1900.0</v>
       </c>
       <c r="G20" t="n">
-        <v>300.0</v>
+        <v>316.6666666666667</v>
       </c>
       <c r="H20" t="n">
-        <v>1000.0</v>
+        <v>2000.0</v>
       </c>
       <c r="I20" t="n">
-        <v>250.0</v>
+        <v>333.3333333333333</v>
       </c>
       <c r="J20" t="n">
-        <v>32.75</v>
+        <v>36.666666666666664</v>
       </c>
       <c r="K20" t="n">
-        <v>42.75</v>
+        <v>16.0</v>
       </c>
       <c r="L20" t="n">
-        <v>33.25</v>
+        <v>21.166666666666668</v>
       </c>
       <c r="M20" t="n">
-        <v>24.0</v>
+        <v>22.166666666666668</v>
       </c>
       <c r="N20" t="n">
-        <v>1.6145833333333333</v>
+        <v>1.6165413533834587</v>
       </c>
     </row>
     <row r="21">
@@ -1119,43 +1125,43 @@
         <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C21" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D21" t="n">
-        <v>130.0</v>
+        <v>155.0</v>
       </c>
       <c r="E21" t="n">
-        <v>43.333333333333336</v>
+        <v>38.75</v>
       </c>
       <c r="F21" t="n">
-        <v>1400.0</v>
+        <v>1200.0</v>
       </c>
       <c r="G21" t="n">
-        <v>466.6666666666667</v>
+        <v>300.0</v>
       </c>
       <c r="H21" t="n">
         <v>1000.0</v>
       </c>
       <c r="I21" t="n">
-        <v>333.3333333333333</v>
+        <v>250.0</v>
       </c>
       <c r="J21" t="n">
-        <v>27.333333333333332</v>
+        <v>32.75</v>
       </c>
       <c r="K21" t="n">
-        <v>40.333333333333336</v>
+        <v>42.75</v>
       </c>
       <c r="L21" t="n">
-        <v>24.333333333333332</v>
+        <v>33.25</v>
       </c>
       <c r="M21" t="n">
-        <v>19.666666666666668</v>
+        <v>24.0</v>
       </c>
       <c r="N21" t="n">
-        <v>2.2033898305084745</v>
+        <v>1.6145833333333333</v>
       </c>
     </row>
     <row r="22">
@@ -1163,43 +1169,43 @@
         <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C22" t="n">
         <v>3.0</v>
       </c>
       <c r="D22" t="n">
-        <v>150.0</v>
+        <v>130.0</v>
       </c>
       <c r="E22" t="n">
-        <v>50.0</v>
+        <v>43.333333333333336</v>
       </c>
       <c r="F22" t="n">
-        <v>1700.0</v>
+        <v>1400.0</v>
       </c>
       <c r="G22" t="n">
-        <v>566.6666666666666</v>
+        <v>466.6666666666667</v>
       </c>
       <c r="H22" t="n">
-        <v>1700.0</v>
+        <v>1000.0</v>
       </c>
       <c r="I22" t="n">
-        <v>566.6666666666666</v>
+        <v>333.3333333333333</v>
       </c>
       <c r="J22" t="n">
-        <v>40.0</v>
+        <v>27.333333333333332</v>
       </c>
       <c r="K22" t="n">
-        <v>16.333333333333332</v>
+        <v>40.333333333333336</v>
       </c>
       <c r="L22" t="n">
-        <v>15.333333333333334</v>
+        <v>24.333333333333332</v>
       </c>
       <c r="M22" t="n">
-        <v>24.666666666666668</v>
+        <v>19.666666666666668</v>
       </c>
       <c r="N22" t="n">
-        <v>2.027027027027027</v>
+        <v>2.2033898305084745</v>
       </c>
     </row>
     <row r="23">
@@ -1251,42 +1257,86 @@
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C24" t="n">
         <v>1.0</v>
       </c>
       <c r="D24" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>81.0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1.1111111111111112</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D25" t="n">
         <v>80.0</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E25" t="n">
         <v>80.0</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F25" t="n">
         <v>1600.0</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G25" t="n">
         <v>1600.0</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H25" t="n">
         <v>700.0</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I25" t="n">
         <v>700.0</v>
       </c>
-      <c r="J24" t="n">
+      <c r="J25" t="n">
         <v>25.0</v>
       </c>
-      <c r="K24" t="n">
+      <c r="K25" t="n">
         <v>53.0</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L25" t="n">
         <v>25.0</v>
       </c>
-      <c r="M24" t="n">
+      <c r="M25" t="n">
         <v>32.0</v>
       </c>
-      <c r="N24" t="n">
+      <c r="N25" t="n">
         <v>2.5</v>
       </c>
     </row>
